--- a/04_Entregable 2/previo/metadatos y diccionario_04.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="153">
   <si>
     <t>Elemento</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Año de la importación</t>
   </si>
   <si>
-    <t>Todas se relacionan con el evento de importación</t>
-  </si>
-  <si>
     <t>24EC000017I</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>Saldo con el que se queda la empresa</t>
   </si>
   <si>
-    <t>Todas se relacionan con el evento de entrega</t>
-  </si>
-  <si>
     <t>24EC000003X</t>
   </si>
   <si>
@@ -443,13 +437,69 @@
   </si>
   <si>
     <t>COSMOS</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>24EC000001X</t>
+  </si>
+  <si>
+    <t>Año, Mes, Día</t>
+  </si>
+  <si>
+    <t>Debe pertenecer a las cataegorías descritas en directrices CITES</t>
+  </si>
+  <si>
+    <t>David Veintimilla</t>
+  </si>
+  <si>
+    <t>Evaluación de riesgo ambiental de la especie Haliaeetus leucocephalus No. MAATE-ERAE-2024-0147 para la introducción al país "bajo".
+Permiso de exportación Nro. 24NL329732/12 emitido por la Autoridad Administrativa CITES de Paises Bajos.
+Este permiso es válido únicamente si las condiciones de transporte cumplen con las disposiciones de la Reglamentación para el transporte de aniales vivos de la IATA.</t>
+  </si>
+  <si>
+    <t>Apendice, Especie</t>
+  </si>
+  <si>
+    <t>Apéndice, Grupo, Especie</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 12</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 31 en función del mes</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+  </si>
+  <si>
+    <t>Número mayor al año en que se empezaron a generar las bases</t>
+  </si>
+  <si>
+    <t>Ningún caso tenía información</t>
+  </si>
+  <si>
+    <t>Cantidad, Unidad</t>
+  </si>
+  <si>
+    <t>Cantidad, Peso</t>
+  </si>
+  <si>
+    <t>Empresa, Embarcación</t>
+  </si>
+  <si>
+    <t>Debe estar en un formato establecido</t>
+  </si>
+  <si>
+    <t>Se queda un excedente de la exportación 93</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,14 +515,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,6 +526,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -539,9 +595,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,10 +1087,10 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>34</v>
       </c>
@@ -1060,10 +1115,13 @@
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>74</v>
@@ -1082,11 +1140,15 @@
       <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
-        <v>72</v>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" t="s">
+        <v>138</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>75</v>
@@ -1105,11 +1167,13 @@
       <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="E5" s="10"/>
       <c r="F5" t="s">
-        <v>72</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>76</v>
@@ -1130,10 +1194,11 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" t="s">
-        <v>72</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" t="s">
         <v>77</v>
@@ -1152,14 +1217,15 @@
       <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F7" t="s">
-        <v>72</v>
+      <c r="F7" s="13"/>
+      <c r="G7" t="s">
+        <v>138</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
         <v>78</v>
@@ -1178,14 +1244,15 @@
       <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
-        <v>72</v>
+      <c r="F8" s="13"/>
+      <c r="G8" t="s">
+        <v>138</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
@@ -1206,10 +1273,11 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" t="s">
-        <v>72</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1228,14 +1296,17 @@
       <c r="D10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
         <v>80</v>
@@ -1254,14 +1325,15 @@
       <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
-        <v>72</v>
+      <c r="F11" s="13"/>
+      <c r="G11" t="s">
+        <v>138</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
         <v>81</v>
@@ -1280,14 +1352,15 @@
       <c r="D12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F12" t="s">
-        <v>72</v>
+      <c r="F12" s="13"/>
+      <c r="G12" t="s">
+        <v>138</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -1306,14 +1379,18 @@
       <c r="D13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1329,14 +1406,15 @@
       <c r="D14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F14" t="s">
-        <v>72</v>
+      <c r="F14" s="13"/>
+      <c r="G14" t="s">
+        <v>138</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I14" t="s">
         <v>83</v>
@@ -1355,14 +1433,17 @@
       <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I15">
         <v>2024</v>
@@ -1381,14 +1462,17 @@
       <c r="D16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I16">
         <v>11</v>
@@ -1407,14 +1491,17 @@
       <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>144</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I17">
         <v>19</v>
@@ -1473,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,15 +1657,15 @@
       <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1597,14 +1684,14 @@
       <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1623,14 +1710,16 @@
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
       <c r="H4" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1650,14 +1739,16 @@
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
       <c r="H5" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1676,15 +1767,15 @@
       <c r="E6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
       <c r="H6" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1703,15 +1794,13 @@
       <c r="E7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1731,11 +1820,11 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I8" s="12">
         <v>5</v>
@@ -1758,10 +1847,13 @@
         <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>148</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>80</v>
@@ -1772,7 +1864,7 @@
         <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>33</v>
@@ -1783,14 +1875,13 @@
       <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1809,14 +1900,15 @@
       <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>100</v>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1824,7 +1916,7 @@
         <v>90</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>33</v>
@@ -1835,14 +1927,13 @@
       <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1861,14 +1952,15 @@
       <c r="E13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
-        <v>100</v>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1887,14 +1979,15 @@
       <c r="E14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F14" t="s">
-        <v>100</v>
+      <c r="F14" s="13"/>
+      <c r="G14" t="s">
+        <v>138</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1913,16 +2006,19 @@
       <c r="E15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F15" t="s">
-        <v>100</v>
+      <c r="F15" s="13"/>
+      <c r="G15" t="s">
+        <v>138</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B16" t="s">
@@ -1937,13 +2033,15 @@
       <c r="E16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
-        <v>100</v>
-      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1961,11 +2059,10 @@
       <c r="E17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I17" s="12">
         <v>2024</v>
@@ -1987,13 +2084,14 @@
       <c r="E18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D19" s="12"/>
@@ -2418,15 +2516,12 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I14">
       <formula1>"T,Z,G,Q,S,H,P,M,E,N,B,L"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4">
       <formula1>"I,II,III"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Revisar las descripciones en la Notificación No. 2023/132" sqref="I15">
-      <formula1>"W,X,R,D,A,C,Y,F,U,I,O"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2484,7 +2579,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2492,7 +2587,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,10 +2662,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>31</v>
@@ -2581,21 +2676,22 @@
       <c r="E2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="10"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="12" t="s">
         <v>31</v>
       </c>
@@ -2605,8 +2701,9 @@
       <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>132</v>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>34</v>
@@ -2618,7 +2715,7 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>32</v>
@@ -2629,11 +2726,12 @@
       <c r="E4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>132</v>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I4" s="12">
         <v>45485</v>
@@ -2644,7 +2742,7 @@
         <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>33</v>
@@ -2653,22 +2751,21 @@
         <v>21</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>70</v>
@@ -2680,10 +2777,11 @@
         <v>21</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>132</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I6" s="12">
         <v>3502</v>
@@ -2691,10 +2789,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>70</v>
@@ -2706,10 +2804,11 @@
         <v>21</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>132</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="12" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I7" s="12">
         <v>74800</v>
@@ -2717,10 +2816,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>33</v>
@@ -2728,23 +2827,24 @@
       <c r="D8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="12" t="s">
-        <v>132</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>31</v>
@@ -2756,21 +2856,22 @@
         <v>21</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>132</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="12" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>70</v>
@@ -2781,20 +2882,21 @@
       <c r="E10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>132</v>
-      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="I10" s="12">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>31</v>
@@ -2805,62 +2907,13 @@
       <c r="E11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>132</v>
-      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/04_Entregable 2/previo/metadatos y diccionario_04.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11385" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Metadatos generales" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="153">
   <si>
     <t>Elemento</t>
   </si>
@@ -80,6 +80,12 @@
     <t>Fuente de Datos</t>
   </si>
   <si>
+    <t>Relaciones</t>
+  </si>
+  <si>
+    <t>Reglas de Calidad</t>
+  </si>
+  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
   </si>
   <si>
     <t>Identificación</t>
+  </si>
+  <si>
+    <t>Transacción o Evento</t>
   </si>
   <si>
     <t>Informe CITES 2024</t>
@@ -240,6 +249,9 @@
     <t>CITES</t>
   </si>
   <si>
+    <t>Todas se relacionan con el evento de exportación o reexportación</t>
+  </si>
+  <si>
     <t>24EC000089E</t>
   </si>
   <si>
@@ -427,7 +439,16 @@
     <t>COSMOS</t>
   </si>
   <si>
+    <t>Evento</t>
+  </si>
+  <si>
     <t>24EC000001X</t>
+  </si>
+  <si>
+    <t>Año, Mes, Día</t>
+  </si>
+  <si>
+    <t>Debe pertenecer a las cataegorías descritas en directrices CITES</t>
   </si>
   <si>
     <t>David Veintimilla</t>
@@ -438,28 +459,46 @@
 Este permiso es válido únicamente si las condiciones de transporte cumplen con las disposiciones de la Reglamentación para el transporte de aniales vivos de la IATA.</t>
   </si>
   <si>
+    <t>Apendice, Especie</t>
+  </si>
+  <si>
+    <t>Apéndice, Grupo, Especie</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 12</t>
+  </si>
+  <si>
+    <t>Número entre 1 y 31 en función del mes</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+  </si>
+  <si>
+    <t>Número mayor al año en que se empezaron a generar las bases</t>
+  </si>
+  <si>
     <t>Ningún caso tenía información</t>
   </si>
   <si>
+    <t>Cantidad, Unidad</t>
+  </si>
+  <si>
+    <t>Cantidad, Peso</t>
+  </si>
+  <si>
+    <t>Empresa, Embarcación</t>
+  </si>
+  <si>
+    <t>Debe estar en un formato establecido</t>
+  </si>
+  <si>
     <t>Se queda un excedente de la exportación 93</t>
-  </si>
-  <si>
-    <t>Clasificación MAATE</t>
-  </si>
-  <si>
-    <t>La unidad de medida está en la siguiente variable</t>
-  </si>
-  <si>
-    <t>Número de individuos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,9 +596,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,58 +958,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -976,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -989,12 +1032,14 @@
     <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1010,378 +1055,455 @@
       <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17">
         <v>19</v>
       </c>
     </row>
@@ -1406,58 +1528,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1467,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,12 +1602,14 @@
     <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1501,440 +1625,907 @@
       <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43">
         <v>19</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I14">
       <formula1>"T,Z,G,Q,S,H,P,M,E,N,B,L"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4">
       <formula1>"I,II,III"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1956,58 +2547,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2017,10 +2608,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,12 +2621,14 @@
     <col min="3" max="3" width="16.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -2051,240 +2644,276 @@
       <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F2" s="13"/>
       <c r="G2" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="12">
-        <v>1440801</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="12">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="12">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="14">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12">
-        <v>74800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="12">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12" t="s">
         <v>135</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
